--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,43 +197,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>前梁包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红豆薏仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普洱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠蛋白条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠木屑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>骨传导耳机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前梁包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车车灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红豆薏仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普洱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓鼠蛋白条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,7 +1049,7 @@
         <v>618</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1096,7 +1100,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1107,13 +1111,16 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
+      <c r="B7">
+        <v>17.7</v>
+      </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -1125,17 +1132,23 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
@@ -1144,6 +1157,9 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
+      <c r="B10">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
@@ -1152,21 +1168,24 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>35</v>
       </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1174,17 +1193,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A44A43-EC43-4A3E-BF77-03E3D8F0DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app互联互通写入" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">app互联互通写入!$I$1:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -244,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,6 +311,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -347,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +394,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -810,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1085,6 +1133,9 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -1168,6 +1219,9 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
+      <c r="B11">
+        <v>138</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -1195,29 +1249,48 @@
       <c r="A14" t="s">
         <v>49</v>
       </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>50</v>
       </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>54</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <f>SUM(B1:B22)</f>
+        <v>1140.1899999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A44A43-EC43-4A3E-BF77-03E3D8F0DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="app互联互通写入" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">app互联互通写入!$I$1:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,13 +248,17 @@
   </si>
   <si>
     <t>骨传导耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑行手套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +285,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,9 +313,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,26 +411,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,23 +446,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -858,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1077,11 +1060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,10 +1113,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>75</v>
       </c>
       <c r="C4" t="s">
@@ -1144,9 +1127,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>39</v>
       </c>
@@ -1166,10 +1150,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>17.7</v>
       </c>
       <c r="C7" t="s">
@@ -1180,10 +1164,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>74</v>
       </c>
       <c r="C8" t="s">
@@ -1194,10 +1178,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>107</v>
       </c>
       <c r="C9" t="s">
@@ -1205,10 +1189,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" t="s">
@@ -1216,76 +1200,85 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="2">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="2">
         <v>19.07</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23">
-        <f>SUM(B1:B22)</f>
-        <v>1140.1899999999998</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <f>SUM(B1:B23)</f>
+        <v>1162.1899999999998</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,59 +199,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>手机壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前梁包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红豆薏仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普洱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠蛋白条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠木屑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨传导耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑行手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>自行车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前梁包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车车灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红豆薏仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普洱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓鼠蛋白条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓鼠木屑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨传导耳机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑行手套</t>
+    <t>短袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,7 +1096,7 @@
         <v>618</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1135,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1146,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1174,7 +1190,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1185,7 +1201,10 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1196,15 +1215,18 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1214,6 +1236,9 @@
       <c r="B12" s="2">
         <v>138</v>
       </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1223,12 +1248,12 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>25</v>
@@ -1239,15 +1264,18 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>40</v>
       </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
@@ -1255,7 +1283,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>19.07</v>
@@ -1263,13 +1291,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韩国语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普洱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +264,26 @@
   </si>
   <si>
     <t>运动鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木屑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺蛳粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1112,7 @@
         <v>618</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1107,7 +1123,10 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -1122,10 +1141,13 @@
         <v>285.12</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1136,10 +1158,13 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1148,10 +1173,13 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1159,10 +1187,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1175,6 +1206,9 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
@@ -1187,10 +1221,13 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1201,10 +1238,13 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1215,18 +1255,24 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1237,7 +1283,10 @@
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1248,12 +1297,15 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>25</v>
@@ -1261,52 +1313,88 @@
       <c r="C14" t="s">
         <v>35</v>
       </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>19.07</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24">
         <f>SUM(B1:B23)</f>
         <v>1162.1899999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <f>SUM(D2:D27)</f>
+        <v>2005</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="app互联互通写入" sheetId="1" r:id="rId1"/>
     <sheet name="app互联读取" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">app互联互通写入!$I$1:$I$33</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="70">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +285,30 @@
   </si>
   <si>
     <t>垃圾袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）基础养老金=[(参保人员退休时全区上年度城镇单位在岗职工月平均工资+本人指数化月平均缴费工资)÷2]×缴费年限×1%。（2）个人账户养老金=个人账户储存额÷计发月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +330,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -345,11 +376,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1402,4 +1434,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5800</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10628</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>428</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f>(B2+(B2*C2))/2*40*0.01</f>
+        <v>3400.96</v>
+      </c>
+      <c r="B5">
+        <f>D2*30/101*12</f>
+        <v>1525.5445544554457</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="app互联互通写入" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木屑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浴沙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +305,18 @@
   </si>
   <si>
     <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表贴膜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,6 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -906,6 +915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1125,10 +1135,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1155,7 +1166,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1208,7 +1219,7 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -1385,10 +1396,10 @@
         <v>19.07</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1397,7 +1408,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -1411,10 +1422,26 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1426,7 +1453,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D28">
         <f>SUM(D2:D27)</f>
-        <v>2005</v>
+        <v>2140</v>
       </c>
     </row>
   </sheetData>
@@ -1438,9 +1465,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1448,16 +1476,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1474,15 +1502,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8866F-DF22-4B6A-ACB6-F2D45D45BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app互联互通写入" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">app互联互通写入!$I$1:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,13 +318,21 @@
   </si>
   <si>
     <t>手表贴膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,9 +492,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,6 +544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -914,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -1134,12 +1177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1147,7 +1190,7 @@
     <col min="1" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>3.8</v>
       </c>
@@ -1158,7 +1201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1225,7 +1268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1239,24 +1282,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>17.7</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>300</v>
-      </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1273,7 +1310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1289,8 +1326,11 @@
       <c r="E9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1304,7 +1344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1318,7 +1358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1332,7 +1372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1414,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -1442,6 +1482,22 @@
       </c>
       <c r="D21">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1453,7 +1509,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D28">
         <f>SUM(D2:D27)</f>
-        <v>2140</v>
+        <v>1950</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K5"/>
   <sheetViews>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8866F-DF22-4B6A-ACB6-F2D45D45BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="app互联互通写入" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">app互联互通写入!$I$1:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复合维生素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,13 +321,25 @@
   </si>
   <si>
     <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车水杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥皂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体乳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,26 +499,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,23 +534,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -736,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -957,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -1177,12 +1150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1171,7 @@
         <v>618</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1209,7 +1182,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1250,7 +1223,7 @@
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1265,21 +1238,15 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1289,6 +1256,12 @@
       <c r="B7" s="2">
         <v>17.7</v>
       </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
@@ -1301,13 +1274,13 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1318,13 +1291,13 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>3000</v>
@@ -1338,7 +1311,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -1346,13 +1319,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1366,7 +1339,7 @@
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -1380,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1388,7 +1361,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2">
         <v>25</v>
@@ -1402,13 +1375,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -1416,13 +1389,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -1430,13 +1403,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>19.07</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -1444,11 +1417,11 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -1456,13 +1429,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>140</v>
@@ -1470,7 +1443,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1478,7 +1451,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1486,7 +1459,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1494,7 +1467,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -1505,11 +1478,25 @@
         <f>SUM(B1:B23)</f>
         <v>1162.1899999999998</v>
       </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D28">
         <f>SUM(D2:D27)</f>
-        <v>1950</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1532,16 +1519,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1558,15 +1545,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,34 @@
   </si>
   <si>
     <t>身体乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏凉被</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠降温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,10 +1180,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1245,6 +1273,12 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
       <c r="E6" t="s">
         <v>44</v>
       </c>
@@ -1493,10 +1527,52 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
       <c r="D28">
-        <f>SUM(D2:D27)</f>
-        <v>2000</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +321,6 @@
   </si>
   <si>
     <t>自行车水杯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥皂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1183,7 +1175,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1210,7 +1202,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1274,7 +1266,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>80</v>
@@ -1290,12 +1282,6 @@
       <c r="B7" s="2">
         <v>17.7</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1317,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>3000</v>
@@ -1358,12 +1344,6 @@
       <c r="B11" s="2">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1373,7 +1353,7 @@
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -1387,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1415,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -1429,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -1443,7 +1423,7 @@
         <v>19.07</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -1455,7 +1435,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -1469,7 +1449,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>140</v>
@@ -1477,7 +1457,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1485,7 +1465,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1493,7 +1473,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1501,7 +1481,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -1513,7 +1493,7 @@
         <v>1162.1899999999998</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>30</v>
@@ -1521,7 +1501,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -1529,7 +1509,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -1537,7 +1517,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>80</v>
@@ -1545,7 +1525,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>40</v>
@@ -1553,7 +1533,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1561,7 +1541,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>80</v>
@@ -1569,7 +1549,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>20</v>
@@ -1595,16 +1575,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1621,15 +1601,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8866F-DF22-4B6A-ACB6-F2D45D45BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAFC06B-72E2-446B-8A96-6CFA3D962DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车水杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1186,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,11 +1509,17 @@
         <f>SUM(B1:B23)</f>
         <v>1162.1899999999998</v>
       </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D28">
         <f>SUM(D2:D27)</f>
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袜子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏凉被</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短裤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,11 +332,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凉席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车尾灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝矿力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠笼子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +390,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,12 +434,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1172,10 +1187,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1202,7 +1217,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1219,11 +1234,12 @@
         <f>99*6*0.48</f>
         <v>285.12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3">
-        <v>200</v>
+      <c r="D3" s="2">
+        <f>62+65.4</f>
+        <v>127.4</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -1236,11 +1252,11 @@
       <c r="B4" s="2">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4">
-        <v>150</v>
+      <c r="D4" s="2">
+        <v>91.5</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -1251,11 +1267,11 @@
         <v>28</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5">
-        <v>150</v>
+      <c r="D5" s="2">
+        <v>126.2</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -1265,14 +1281,11 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2">
+        <v>185.98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1293,14 +1306,14 @@
       <c r="B8" s="2">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>150</v>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>52.7</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1310,14 +1323,14 @@
       <c r="B9" s="2">
         <v>107</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E9" t="s">
         <v>52</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
       </c>
       <c r="F9">
         <v>3000</v>
@@ -1330,19 +1343,31 @@
       <c r="B10" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>54.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1352,11 +1377,11 @@
       <c r="B12" s="2">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2">
+        <v>175.4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1366,11 +1391,11 @@
       <c r="B13" s="2">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>150</v>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2">
+        <v>121.63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1380,111 +1405,111 @@
       <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>50</v>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2">
+        <v>24.9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>19.07</v>
       </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2">
+        <v>93.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12.9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19">
-        <v>140</v>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20.66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="D21" s="2">
+        <v>109.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+      <c r="D22" s="2">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23">
-        <v>80</v>
+      <c r="D23" s="2">
+        <v>48.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1492,67 +1517,73 @@
         <f>SUM(B1:B23)</f>
         <v>1162.1899999999998</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="D25" s="2">
+        <v>130.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
+      <c r="D26" s="2">
+        <v>59.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
+      <c r="D28" s="2">
+        <v>16.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="D30" s="2">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="5">
         <v>80</v>
       </c>
-      <c r="D31">
-        <v>20</v>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <f>SUM(D2:D31)</f>
+        <v>1852.8900000000008</v>
       </c>
     </row>
   </sheetData>
@@ -1575,16 +1606,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1601,15 +1632,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摄像头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +357,10 @@
   </si>
   <si>
     <t>仓鼠笼子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机贴膜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1217,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1274,7 +1274,10 @@
         <v>126.2</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1313,7 +1316,7 @@
         <v>52.7</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1324,13 +1327,13 @@
         <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2">
         <v>20.399999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>3000</v>
@@ -1344,13 +1347,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>78.8</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -1358,13 +1361,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>54.7</v>
@@ -1378,7 +1381,7 @@
         <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2">
         <v>175.4</v>
@@ -1392,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2">
         <v>121.63</v>
@@ -1406,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2">
         <v>44</v>
@@ -1414,13 +1417,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2">
         <v>24.9</v>
@@ -1428,13 +1431,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>18.399999999999999</v>
@@ -1442,13 +1445,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>19.07</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2">
         <v>93.8</v>
@@ -1456,11 +1459,11 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>12.9</v>
@@ -1468,13 +1471,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2">
         <v>20.66</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>9.8000000000000007</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2">
         <v>109.68</v>
@@ -1498,7 +1501,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2">
         <v>17.899999999999999</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2">
         <v>48.5</v>
@@ -1518,7 +1521,7 @@
         <v>1162.1899999999998</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2">
         <v>56.4</v>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2">
         <v>130.44</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2">
         <v>59.5</v>
@@ -1542,7 +1545,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2">
         <v>18.2</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
         <v>16.2</v>
@@ -1558,7 +1561,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>20</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2">
         <v>26.9</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="5">
         <v>80</v>
@@ -1606,16 +1609,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1632,15 +1635,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1244,6 +1244,9 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
+      <c r="F3">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1257,9 +1260,6 @@
       </c>
       <c r="D4" s="2">
         <v>91.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自行车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短袖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +357,54 @@
   </si>
   <si>
     <t>手机贴膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码表等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩颈按摩器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns贴膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笼子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足部按摩器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,10 +1231,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1242,7 @@
     <col min="1" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>3.8</v>
       </c>
@@ -1208,8 +1252,11 @@
       <c r="E1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1217,7 +1264,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1225,8 +1272,14 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1301,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1261,8 +1314,14 @@
       <c r="D4" s="2">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1274,13 +1333,13 @@
         <v>126.2</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1290,8 +1349,14 @@
       <c r="D6" s="2">
         <v>185.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1299,10 +1364,13 @@
         <v>17.7</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1327,19 +1395,19 @@
         <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2">
         <v>20.399999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1353,13 +1421,13 @@
         <v>78.8</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1367,13 +1435,19 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1381,13 +1455,19 @@
         <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2">
         <v>175.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1395,13 +1475,19 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2">
         <v>121.63</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1409,13 +1495,16 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1423,13 +1512,16 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1437,13 +1529,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1451,25 +1549,31 @@
         <v>19.07</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2">
         <v>12.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1477,116 +1581,124 @@
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2">
         <v>20.66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2">
         <v>109.68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2">
         <v>48.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24">
         <f>SUM(B1:B23)</f>
         <v>1162.1899999999998</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2">
         <v>56.4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2">
         <v>130.44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2">
         <v>59.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2">
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2">
         <v>16.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2">
         <v>26.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D34">
         <f>SUM(D2:D31)</f>
         <v>1852.8900000000008</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:F34" si="0">SUM(E2:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3958</v>
       </c>
     </row>
   </sheetData>
@@ -1609,16 +1721,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1635,15 +1747,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普洱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓鼠蛋白条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,18 +372,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笼子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>控制器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>足部按摩器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>补品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +393,46 @@
   </si>
   <si>
     <t>座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄酒架子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠粮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货架子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗面奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1262,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,7 +1292,7 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1273,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>3000</v>
@@ -1315,7 +1343,7 @@
         <v>91.5</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>398</v>
@@ -1333,7 +1361,7 @@
         <v>126.2</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -1350,10 +1378,10 @@
         <v>185.98</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1364,7 +1392,7 @@
         <v>17.7</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>1400</v>
@@ -1384,7 +1412,7 @@
         <v>52.7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1395,13 +1423,13 @@
         <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2">
         <v>20.399999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -1415,13 +1443,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>78.8</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -1429,22 +1457,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
         <v>54.7</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1455,16 +1483,16 @@
         <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2">
         <v>175.4</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F12">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1475,13 +1503,13 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
         <v>121.63</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>300</v>
@@ -1495,13 +1523,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1512,13 +1540,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2">
         <v>24.9</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1529,13 +1557,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2">
         <v>18.399999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -1543,19 +1571,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>19.07</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2">
         <v>93.8</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <v>300</v>
@@ -1563,60 +1591,96 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2">
         <v>12.9</v>
       </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2">
         <v>20.66</v>
       </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2">
         <v>9.8000000000000007</v>
       </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2">
         <v>109.68</v>
       </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2">
         <v>17.899999999999999</v>
       </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2">
         <v>48.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1625,15 +1689,21 @@
         <v>1162.1899999999998</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2">
         <v>56.4</v>
       </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>1500</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2">
         <v>130.44</v>
@@ -1641,7 +1711,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2">
         <v>59.5</v>
@@ -1649,7 +1719,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2">
         <v>18.2</v>
@@ -1657,7 +1727,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2">
         <v>16.2</v>
@@ -1665,7 +1735,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>20</v>
@@ -1673,7 +1743,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2">
         <v>26.9</v>
@@ -1681,7 +1751,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5">
         <v>80</v>
@@ -1698,7 +1768,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>3958</v>
+        <v>6748</v>
       </c>
     </row>
   </sheetData>
@@ -1721,16 +1791,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -1747,15 +1817,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锁鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肩颈按摩器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>补品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衣服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,18 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>葡萄酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄酒架子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠粮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>羽绒服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,7 +412,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电视</t>
+    <t>寿喜锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车货架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶盏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洁厕灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养身壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驮包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威猛先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠窝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1282,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1298,10 +1318,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>3000</v>
@@ -1323,7 +1346,7 @@
         <v>127.4</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>130</v>
@@ -1346,7 +1369,7 @@
         <v>81</v>
       </c>
       <c r="F4">
-        <v>398</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1364,7 +1387,7 @@
         <v>80</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1378,10 +1401,10 @@
         <v>185.98</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F6">
-        <v>450</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1392,7 +1415,7 @@
         <v>17.7</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>1400</v>
@@ -1412,7 +1435,11 @@
         <v>52.7</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <f>230</f>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1429,10 +1456,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1452,7 +1479,8 @@
         <v>52</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <f>200+126</f>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1469,7 +1497,7 @@
         <v>54.7</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -1489,10 +1517,10 @@
         <v>175.4</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1509,10 +1537,10 @@
         <v>121.63</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1529,7 +1557,10 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1546,7 +1577,10 @@
         <v>24.9</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1563,7 +1597,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -1583,7 +1617,7 @@
         <v>93.8</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>300</v>
@@ -1601,10 +1635,10 @@
         <v>12.9</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1621,10 +1655,10 @@
         <v>20.66</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1635,7 +1669,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>200</v>
@@ -1649,7 +1683,7 @@
         <v>109.68</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -1663,7 +1697,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>200</v>
@@ -1677,7 +1711,7 @@
         <v>48.5</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>150</v>
@@ -1695,10 +1729,10 @@
         <v>56.4</v>
       </c>
       <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24">
         <v>100</v>
-      </c>
-      <c r="F24">
-        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1708,6 +1742,12 @@
       <c r="D25" s="2">
         <v>130.44</v>
       </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
@@ -1716,6 +1756,12 @@
       <c r="D26" s="2">
         <v>59.5</v>
       </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
@@ -1723,6 +1769,12 @@
       </c>
       <c r="D27" s="2">
         <v>18.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1768,7 +1820,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>6748</v>
+        <v>5753</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗发水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗面奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +449,14 @@
   </si>
   <si>
     <t>鼠窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用药品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐浴露</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +484,19 @@
       <color rgb="FF191919"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -526,13 +543,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -844,9 +863,9 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -880,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -897,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -931,7 +950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -948,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -973,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1014,37 +1033,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="I13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="I15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="I16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:9">
       <c r="I17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:9">
       <c r="I18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:9">
       <c r="I19" t="s">
         <v>20</v>
       </c>
@@ -1065,9 +1084,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1205,67 +1224,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="I13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="I14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="I15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="I16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:9">
       <c r="I17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:9">
       <c r="I18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:9">
       <c r="I19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:9">
       <c r="I20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:9">
       <c r="I21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:9">
       <c r="I22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:9">
       <c r="I23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:9">
       <c r="I24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="9:9">
       <c r="I25" t="s">
         <v>20</v>
       </c>
@@ -1281,16 +1300,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>3.8</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1330,7 +1349,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1346,13 +1365,13 @@
         <v>127.4</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1369,10 +1388,10 @@
         <v>81</v>
       </c>
       <c r="F4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1401,13 +1420,13 @@
         <v>185.98</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1418,10 +1437,10 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1434,15 +1453,15 @@
       <c r="D8" s="2">
         <v>52.7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F8">
-        <f>230</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="7">
+        <f>220+126</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1479,11 +1498,10 @@
         <v>52</v>
       </c>
       <c r="F10">
-        <f>200+126</f>
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1499,11 +1517,8 @@
       <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1517,13 +1532,13 @@
         <v>175.4</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1537,13 +1552,13 @@
         <v>121.63</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1560,10 +1575,10 @@
         <v>85</v>
       </c>
       <c r="F14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1580,10 +1595,10 @@
         <v>86</v>
       </c>
       <c r="F15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1600,10 +1615,10 @@
         <v>87</v>
       </c>
       <c r="F16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1635,13 +1650,13 @@
         <v>12.9</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1655,13 +1670,13 @@
         <v>20.66</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
@@ -1672,10 +1687,10 @@
         <v>91</v>
       </c>
       <c r="F20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1686,10 +1701,10 @@
         <v>92</v>
       </c>
       <c r="F21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1697,13 +1712,13 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
@@ -1711,13 +1726,13 @@
         <v>48.5</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24">
         <f>SUM(B1:B23)</f>
         <v>1162.1899999999998</v>
@@ -1729,13 +1744,14 @@
         <v>56.4</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <f>55+36+13</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
@@ -1743,13 +1759,13 @@
         <v>130.44</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -1757,13 +1773,13 @@
         <v>59.5</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -1771,21 +1787,28 @@
         <v>18.2</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <f>14+15+75+20</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="C29" t="s">
         <v>72</v>
       </c>
@@ -1793,7 +1816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="C30" s="2" t="s">
         <v>77</v>
       </c>
@@ -1801,7 +1824,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="C31" s="5" t="s">
         <v>79</v>
       </c>
@@ -1809,7 +1832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:6">
       <c r="D34">
         <f>SUM(D2:D31)</f>
         <v>1852.8900000000008</v>
@@ -1820,7 +1843,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>5753</v>
+        <v>3942.4</v>
       </c>
     </row>
   </sheetData>
@@ -1839,9 +1862,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1855,7 +1878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2">
         <v>5800</v>
       </c>
@@ -1872,7 +1895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1880,7 +1903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5">
         <f>(B2+(B2*C2))/2*40*0.01</f>
         <v>3400.96</v>

--- a/其他共享文件/app&shop.xlsx
+++ b/其他共享文件/app&shop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
   <si>
     <t>薄荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,223 +240,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>浴沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺蛳粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）基础养老金=[(参保人员退休时全区上年度城镇单位在岗职工月平均工资+本人指数化月平均缴费工资)÷2]×缴费年限×1%。（2）个人账户养老金=个人账户储存额÷计发月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表贴膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车水杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠降温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车尾灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝矿力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠笼子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机贴膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码表等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩颈按摩器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns贴膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货架子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿喜锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车货架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶盏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养身壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驮包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威猛先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用药品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐浴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>睡衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺蛳粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均薪资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1）基础养老金=[(参保人员退休时全区上年度城镇单位在岗职工月平均工资+本人指数化月平均缴费工资)÷2]×缴费年限×1%。（2）个人账户养老金=个人账户储存额÷计发月数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手表贴膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车水杯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体乳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓鼠降温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手钻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车尾灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行车灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ns包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝矿力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓鼠笼子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机贴膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>码表等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩颈按摩器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ns贴膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽绒服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货架子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗面奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿喜锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车货架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壶盏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洁厕灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养身壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驮包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威猛先生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠窝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用药品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐浴露</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,8 +1304,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1331,19 +1335,19 @@
         <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>3000</v>
@@ -1365,10 +1369,10 @@
         <v>127.4</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F3">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1385,10 +1389,10 @@
         <v>91.5</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>459</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1403,7 +1407,7 @@
         <v>126.2</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>59</v>
@@ -1420,7 +1424,7 @@
         <v>185.98</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>130</v>
@@ -1434,10 +1438,10 @@
         <v>17.7</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1454,7 +1458,7 @@
         <v>52.7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7">
         <f>220+126</f>
@@ -1469,13 +1473,13 @@
         <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2">
         <v>20.399999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <v>69</v>
@@ -1495,10 +1499,7 @@
         <v>78.8</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1515,7 +1516,7 @@
         <v>54.7</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1526,16 +1527,17 @@
         <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2">
         <v>175.4</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12">
-        <v>38.4</v>
+        <f>16.82+8+14.8</f>
+        <v>39.620000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1552,10 +1554,10 @@
         <v>121.63</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1566,13 +1568,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1586,16 +1588,16 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2">
         <v>24.9</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1606,13 +1608,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
         <v>18.399999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1626,13 +1628,13 @@
         <v>19.07</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
         <v>93.8</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <v>300</v>
@@ -1644,16 +1646,16 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>12.9</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1664,27 +1666,27 @@
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2">
         <v>20.66</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2">
         <v>9.8000000000000007</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>171</v>
@@ -1692,44 +1694,44 @@
     </row>
     <row r="21" spans="1:6">
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2">
         <v>109.68</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2">
         <v>17.899999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2">
         <v>48.5</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1738,13 +1740,13 @@
         <v>1162.1899999999998</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2">
         <v>56.4</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <f>55+36+13</f>
@@ -1753,27 +1755,27 @@
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2">
         <v>130.44</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2">
         <v>59.5</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1781,13 +1783,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2">
         <v>18.2</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <f>14+15+75+20</f>
@@ -1796,13 +1798,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2">
         <v>16.2</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F28">
         <v>200</v>
@@ -1810,15 +1812,21 @@
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2">
         <v>26.9</v>
@@ -1826,7 +1834,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="5">
         <v>80</v>
@@ -1843,7 +1851,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>3942.4</v>
+        <v>3001.52</v>
       </c>
     </row>
   </sheetData>
@@ -1866,16 +1874,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25">
@@ -1892,15 +1900,15 @@
         <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
